--- a/DATA/matrix.xlsx
+++ b/DATA/matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisu\Desktop\KULIAH DATA SCIENCE\Sem 5\WQD7011_NUMERICAL OPTIMIZATION\GROUP ASSIGNMENT\numericaloptimization\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95F17564-F31E-4282-8D27-A84DAF3FD66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CF66D9-414E-400E-A662-A0DE9DAC078B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2939CCF1-BB57-4E8E-8C42-853072C0DF4C}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{2939CCF1-BB57-4E8E-8C42-853072C0DF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,10 +445,13 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -505,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2500</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>6000</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>5000</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
